--- a/biology/Zoologie/Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)/Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ).xlsx
+++ b/biology/Zoologie/Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)/Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -488,7 +500,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -506,7 +518,9 @@
           <t>Présentation générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collections de zoologie de l'Université Claude Bernard Lyon 1 représentent un important patrimoine universitaire à vocation scientifique et pédagogique. Rassemblant plusieurs centaines de milliers de spécimens, elles constituent une ressource précieuse pour la recherche et l'enseignement.
 Les spécimens dont elles se composent, soigneusement conservés et catalogués, couvrent une vaste gamme de taxons, allant des invertébrés marins aux vertébrés terrestres. Chaque spécimen est une fenêtre sur l'évolution, l'adaptation et l'écologie des différentes espèces.
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aide à la recherche
-L'archivage et la conservation de spécimens actuels et fossiles (in toto, tissus, acides nucléiques, etc.) jouent le rôle d'une banque de données au service de la recherche.
-Diffusion des savoirs
-Une collection générale, comprenant de quoi illustrer la quasi totalité du règne animal, des invertébrés Diploblastiques aux vertébrés Mammifères, est utilisée à des fins pédagogiques et de vulgarisation.
-Conservation</t>
+          <t>Aide à la recherche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'archivage et la conservation de spécimens actuels et fossiles (in toto, tissus, acides nucléiques, etc.) jouent le rôle d'une banque de données au service de la recherche.
+</t>
         </is>
       </c>
     </row>
@@ -557,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,12 +589,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Un peu d'histoire</t>
+          <t>Missions</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'origine de ces collections date de la fin du XIXe siècle. Elles se sont enrichies au cours des XIXe, XXe et XXIe siècles par divers legs (tels que les collections d'insectes de Louis Falcoz en 1938 et de mollusques d’Aimé Rebours vers les années 1930), donations (comme les collections d'oiseaux données par l'Ecole Normale de Cluny au siècle dernier, divers invertébrés de l'Antarctique donnés par J. Jazdlewski en 1970), des collections des membres du laboratoire (collections René Koehler 1930, Edmond Sollaud en 1960), des collections contemporaines constituées par des membres du laboratoire et enfin par l'achat régulier de matériel pédagogique.
+          <t>Diffusion des savoirs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une collection générale, comprenant de quoi illustrer la quasi totalité du règne animal, des invertébrés Diploblastiques aux vertébrés Mammifères, est utilisée à des fins pédagogiques et de vulgarisation.
 </t>
         </is>
       </c>
@@ -588,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +626,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Un peu d'histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'origine de ces collections date de la fin du XIXe siècle. Elles se sont enrichies au cours des XIXe, XXe et XXIe siècles par divers legs (tels que les collections d'insectes de Louis Falcoz en 1938 et de mollusques d’Aimé Rebours vers les années 1930), donations (comme les collections d'oiseaux données par l'Ecole Normale de Cluny au siècle dernier, divers invertébrés de l'Antarctique donnés par J. Jazdlewski en 1970), des collections des membres du laboratoire (collections René Koehler 1930, Edmond Sollaud en 1960), des collections contemporaines constituées par des membres du laboratoire et enfin par l'achat régulier de matériel pédagogique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Recherche et enseignement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collections de zoologie de l’Université sont utilisées par les professeurs dans le cadre de leurs enseignements ; elles servent de supports de cours pour des étudiants en licence lors de travaux pratiques sur l’évolution des crânes et des squelettes ou sur la morphologie et l’évolution des oiseaux. Elles sont également mises en avant lors de séances sur la découverte des échinodermes.
 Les collections UCBLZ sont accessibles aux étudiants en master, aux doctorants ainsi qu'aux chercheurs nationaux et internationaux afin de soutenir leurs travaux de recherche. Grâce à la grande diversité de spécimens disponibles, ces collections facilitent la réalisation d'études dans des domaines tels que l'anatomie comparée, l'ostéologie, la phylogénie, et plus généralement sur l'évolution du vivant.
@@ -615,44 +673,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Vulgarisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,27 +694,240 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Vulgarisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Les collections</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La collection de la campagne océanographique du Caudan
-La campagne océanographique du Caudan dans le golfe de Gascogne s'est déroulée du 15 août au 2 septembre 1895, à l'initiative du professeur Koehler, sur l'aviso-remorqueur le Caudan de la Marine Nationale. Il s'agissait d'une des premières campagnes océanographiques françaises, son but était de capturer des animaux de grandes profondeurs. Cette campagne, par dragage (jusqu'à 2200m), a permis de récolter 522 espèces animales dont 94 nouvelles pour la science. Il reste actuellement 256 taxons en collection dont 35 espèces types (23 Crustacés, 8 Echinodermes, 2 Poissons, 2 Spongiaires, 1 Ectoprocte).
-La collection d'Échinodermes René KOEHLER
-René Koehler, professeur de Zoologie à la faculté des Sciences de Lyon de 1894 à 1930 fut un éminent spécialiste des Echinodermes. À partir de 1895 il fut l'un des collaborateurs permanent du prince Albert 1er de Monaco afin d'étudier les récoltes faites lors des expéditions des navires océanographiques : "Hirondelle", "Princesse Alice", "Investigator"... Il identifia et décrivit les spécimens recueillis par les campagnes océanographiques françaises ou étrangères en particulier celles de Jean Charcot sur le "Français" et le "Pourquoi Pas ?".
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La collection de la campagne océanographique du Caudan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La campagne océanographique du Caudan dans le golfe de Gascogne s'est déroulée du 15 août au 2 septembre 1895, à l'initiative du professeur Koehler, sur l'aviso-remorqueur le Caudan de la Marine Nationale. Il s'agissait d'une des premières campagnes océanographiques françaises, son but était de capturer des animaux de grandes profondeurs. Cette campagne, par dragage (jusqu'à 2200m), a permis de récolter 522 espèces animales dont 94 nouvelles pour la science. Il reste actuellement 256 taxons en collection dont 35 espèces types (23 Crustacés, 8 Echinodermes, 2 Poissons, 2 Spongiaires, 1 Ectoprocte).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les collections</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La collection d'Échinodermes René KOEHLER</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Koehler, professeur de Zoologie à la faculté des Sciences de Lyon de 1894 à 1930 fut un éminent spécialiste des Echinodermes. À partir de 1895 il fut l'un des collaborateurs permanent du prince Albert 1er de Monaco afin d'étudier les récoltes faites lors des expéditions des navires océanographiques : "Hirondelle", "Princesse Alice", "Investigator"... Il identifia et décrivit les spécimens recueillis par les campagnes océanographiques françaises ou étrangères en particulier celles de Jean Charcot sur le "Français" et le "Pourquoi Pas ?".
 La collection d'échinodermes de René Koehler renferme, à elle seule, un vaste ensemble d'Echinides, Astérides, Ophiurides, Holothurides et Crinoïdes, conservés dans l'alcool ou le formol, répartis dans 830 flacons, ainsi que de magnifiques illustrations en noir et blanc ou en couleur.
 La bibliothèque de Koehler sur les échinodermes est constituée de 273 ouvrages et de revues anciennes de Biologie Marine.
-La collection entomologique Louis FALCOZ
-Louis Falcoz, pharmacien à Vienne (Isère), était un entomologiste amateur, il entretenait des relations privilégiées avec l'Université Lyonnaise et la Société Linnéenne de Lyon, et soutenu avec succès, en 1914, une thèse à la faculté des Sciences de Lyon. Il composa une collection de Coléoptères français et réalisa un travail très particulier sur les insectes des terriers et nids. Il publia d'autre part la faune de France des Diptères Pupipares, "mouches" ectoparasites, des oiseaux et mammifères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les collections</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>La collection entomologique Louis FALCOZ</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Falcoz, pharmacien à Vienne (Isère), était un entomologiste amateur, il entretenait des relations privilégiées avec l'Université Lyonnaise et la Société Linnéenne de Lyon, et soutenu avec succès, en 1914, une thèse à la faculté des Sciences de Lyon. Il composa une collection de Coléoptères français et réalisa un travail très particulier sur les insectes des terriers et nids. Il publia d'autre part la faune de France des Diptères Pupipares, "mouches" ectoparasites, des oiseaux et mammifères.
 La collection, léguée en 1938, comprend 250 cartons de Coléoptères paléarctiques occidentaux représentant plusieurs milliers de spécimens avec de nombreux types dont certains ont été récemment désignés.
 La bibliothèque entomologique FALCOZ est constituée d'une part d'ouvrages intégrés à la bibliothèque de Zoologie et d'autre part des revues des XIXe et XXe siècles.
-La collection de coquillages Aimé REBOURS
-La collection de coquillages Aimé REBOURS est constituée de coquilles de Mollusques du monde entier, elle est répartie dans 3 armoires spécialement équipées d'un ensemble de 56 tiroirs, ce qui représente une surface totale d'exposition de 16 m².
-La collection générale
-La collection dite "générale", comprend de quoi illustrer la quasi-totalité du règne animal, des invertébrés Diploblastiques aux vertébrés Mammifères ; elle est utilisée essentiellement à des fins pédagogiques.
-D'autres collections...
-Plusieurs transferts de collections ont eu lieu récemment :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les collections</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>La collection de coquillages Aimé REBOURS</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection de coquillages Aimé REBOURS est constituée de coquilles de Mollusques du monde entier, elle est répartie dans 3 armoires spécialement équipées d'un ensemble de 56 tiroirs, ce qui représente une surface totale d'exposition de 16 m².
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les collections</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>La collection générale</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection dite "générale", comprend de quoi illustrer la quasi-totalité du règne animal, des invertébrés Diploblastiques aux vertébrés Mammifères ; elle est utilisée essentiellement à des fins pédagogiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Collections_de_zoologie_de_l'Université_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collections_de_zoologie_de_l%27Universit%C3%A9_Claude_Bernard-Lyon_1_(UCBLZ)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les collections</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>D'autres collections...</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs transferts de collections ont eu lieu récemment :
 La collection de l’Institut Michel Pacha à Tamaris, contenant notamment une collection de coquilles de Porquerolles de l’abbé Ollivier
 La collection pédagogique de l’ESPE de Bourg-en-Bresse
 La collection de Jean Poulard, précédemment localisée à la faculté d’Odontologie
